--- a/Docs To Test/Docs To Test/Test Scenario.xlsx
+++ b/Docs To Test/Docs To Test/Test Scenario.xlsx
@@ -16,11 +16,150 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Nofoos Test Scenario
-M.Hegab
-5/1/2013</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="48">
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>UserHomePage</t>
+  </si>
+  <si>
+    <t>User open the application with its home page</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>user choose the page he wants from the side bar of the page</t>
+  </si>
+  <si>
+    <t>if user chooses amoderator page he redirected to Login page only if he didn't go to it before</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>CreateLost</t>
+  </si>
+  <si>
+    <t>User Fill all fields About his lost</t>
+  </si>
+  <si>
+    <t>user click save button</t>
+  </si>
+  <si>
+    <t>alert with the Lost generated Code Appear to  user to know</t>
+  </si>
+  <si>
+    <t>user click ok and message of operation success appear</t>
+  </si>
+  <si>
+    <t>The page is reloaded again</t>
+  </si>
+  <si>
+    <t>SearchLosts</t>
+  </si>
+  <si>
+    <t>The User fill the field to search</t>
+  </si>
+  <si>
+    <t>Click Enter to see the search result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The search result appear </t>
+  </si>
+  <si>
+    <t>if user is Moderator he can seach by LostName or Code or Both (others search by Code only)</t>
+  </si>
+  <si>
+    <t>SetFoundEntry</t>
+  </si>
+  <si>
+    <t>User Choose this Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page is Loaded with NotFound Entries only </t>
+  </si>
+  <si>
+    <t>User can set any of them to found</t>
+  </si>
+  <si>
+    <t>page is reloaded after save changes without Modified Entry</t>
+  </si>
+  <si>
+    <t>Only Moderators And TerminalGuests Can Set An Entry Lost to found</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Create Admin</t>
+  </si>
+  <si>
+    <t>Moderator Only Can open This Page</t>
+  </si>
+  <si>
+    <t>Moderator Fill all fields</t>
+  </si>
+  <si>
+    <t>clich save button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message of opertion appear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">page is reloaded </t>
+  </si>
+  <si>
+    <t>ManageAdmins</t>
+  </si>
+  <si>
+    <t>Only Moderator can open this page</t>
+  </si>
+  <si>
+    <t>all admins data is loaded in the page</t>
+  </si>
+  <si>
+    <t>The Deleted Name Removed from the page</t>
+  </si>
+  <si>
+    <t>If Moderator Choose to Update Admin he directed to update page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moderator Update data </t>
+  </si>
+  <si>
+    <t>click save button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message of operation appear </t>
+  </si>
+  <si>
+    <t>Moderator Is directed to Manage Admins page with made Change</t>
+  </si>
+  <si>
+    <t>Moderator can delete Any one by click delete button</t>
+  </si>
+  <si>
+    <t>all Losts is loaded in the page with the operations can done on each</t>
+  </si>
+  <si>
+    <t>The Deleted Lost Removed from the page</t>
+  </si>
+  <si>
+    <t>Moderator can Set Found Any one by click Set Found button</t>
+  </si>
+  <si>
+    <t>page is reloaded with new change</t>
+  </si>
+  <si>
+    <t>Manage Losts</t>
   </si>
 </sst>
 </file>
@@ -162,12 +301,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -478,260 +616,534 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I149"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C171"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="45.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="60.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="82.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="73.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="51" customHeight="1" thickBot="1">
-      <c r="B1" s="4"/>
-      <c r="C1" s="1"/>
-      <c r="F1" s="8" t="s">
+      <c r="B1" s="1"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="3"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="3"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="3"/>
+      <c r="A19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="3"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
+      <c r="A27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
+      <c r="A28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
+      <c r="A29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
+      <c r="A30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
+      <c r="A32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="3"/>
+      <c r="A34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="3"/>
+      <c r="A35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="3"/>
+      <c r="A36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="3"/>
+      <c r="A37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="3"/>
+      <c r="A38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="3"/>
+      <c r="A39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="3"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="3"/>
+      <c r="A41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="6"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
+      <c r="B42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="7"/>
+      <c r="A43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+      <c r="A44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="3"/>
+      <c r="A45" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="3"/>
+      <c r="A46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="3"/>
+      <c r="A47" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="3"/>
+      <c r="A48" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="3"/>
+      <c r="A49" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
+      <c r="A50" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="3"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="7"/>
+      <c r="A51" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
+      <c r="A52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="3"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="3"/>
+      <c r="A54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="6"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="3"/>
+      <c r="B55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="3"/>
+      <c r="A56" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="3"/>
+      <c r="A57" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="3"/>
+      <c r="A58" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
+      <c r="A59" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="3"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="7"/>
+      <c r="A60" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
+      <c r="A61" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="3"/>
+      <c r="A62" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="3"/>
+      <c r="A63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="3"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="3"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="6"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="3"/>
@@ -749,18 +1161,13 @@
       <c r="A71" s="3"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
+      <c r="A72" s="3"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="3"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="7"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
+      <c r="A74" s="3"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="3"/>
@@ -769,13 +1176,18 @@
       <c r="A76" s="3"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="3"/>
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="3"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="6"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="3"/>
@@ -793,18 +1205,13 @@
       <c r="A84" s="3"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
+      <c r="A85" s="3"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="3"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="7"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
+      <c r="A87" s="3"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="3"/>
@@ -813,24 +1220,24 @@
       <c r="A89" s="3"/>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="3"/>
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="3"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="6"/>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="3"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="7"/>
     </row>
     <row r="94" spans="1:3">
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
+      <c r="A94" s="3"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="3"/>
@@ -839,13 +1246,18 @@
       <c r="A96" s="3"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="3"/>
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="3"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="6"/>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="3"/>
@@ -857,18 +1269,13 @@
       <c r="A102" s="3"/>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
+      <c r="A103" s="3"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="3"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="7"/>
     </row>
     <row r="105" spans="1:3">
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
+      <c r="A105" s="3"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="3"/>
@@ -877,24 +1284,24 @@
       <c r="A107" s="3"/>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="3"/>
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="3"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="6"/>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="3"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="7"/>
     </row>
     <row r="112" spans="1:3">
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
+      <c r="A112" s="3"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="3"/>
@@ -903,13 +1310,18 @@
       <c r="A114" s="3"/>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="3"/>
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="3"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="6"/>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="3"/>
@@ -918,18 +1330,13 @@
       <c r="A119" s="3"/>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="5"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
+      <c r="A120" s="3"/>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="3"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="7"/>
     </row>
     <row r="122" spans="1:3">
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
+      <c r="A122" s="3"/>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="3"/>
@@ -938,27 +1345,27 @@
       <c r="A124" s="3"/>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="3"/>
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="3"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="6"/>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
+      <c r="A128" s="3"/>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="3"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="7"/>
     </row>
     <row r="130" spans="1:3">
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
+      <c r="A130" s="3"/>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="3"/>
@@ -967,13 +1374,18 @@
       <c r="A132" s="3"/>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="3"/>
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="3"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="6"/>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="3"/>
@@ -982,18 +1394,13 @@
       <c r="A137" s="3"/>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
+      <c r="A138" s="3"/>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="3"/>
-      <c r="B139" s="6"/>
-      <c r="C139" s="7"/>
     </row>
     <row r="140" spans="1:3">
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
+      <c r="A140" s="3"/>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="3"/>
@@ -1002,13 +1409,18 @@
       <c r="A142" s="3"/>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="3"/>
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="3"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="6"/>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="3"/>
@@ -1020,29 +1432,44 @@
       <c r="A148" s="3"/>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="5"/>
-      <c r="B149" s="5"/>
-      <c r="C149" s="5"/>
+      <c r="A149" s="3"/>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="3"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="3"/>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="3"/>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="3"/>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B116:C116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
